--- a/src/P03_data_preprocess/S01_residual_stress_wide_format.xlsx
+++ b/src/P03_data_preprocess/S01_residual_stress_wide_format.xlsx
@@ -628,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="R2" t="n">
-        <v>-105</v>
+        <v>-2.942307692307692</v>
       </c>
       <c r="S2" t="n">
         <v>12</v>
@@ -655,7 +655,7 @@
         <v>23.71428571428572</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.714285714285714</v>
+        <v>16.29395604395604</v>
       </c>
       <c r="AB2" t="n">
         <v>17.42857142857143</v>
@@ -1138,7 +1138,7 @@
         <v>-127</v>
       </c>
       <c r="P8" t="n">
-        <v>-212</v>
+        <v>-12.16981132075472</v>
       </c>
       <c r="Q8" t="n">
         <v>-87</v>
@@ -1171,7 +1171,7 @@
         <v>32.85714285714285</v>
       </c>
       <c r="AA8" t="n">
-        <v>-65.85714285714286</v>
+        <v>-37.3099730458221</v>
       </c>
       <c r="AB8" t="n">
         <v>11.57142857142857</v>
@@ -1660,7 +1660,7 @@
         <v>-19</v>
       </c>
       <c r="R14" t="n">
-        <v>-144</v>
+        <v>-9.942307692307692</v>
       </c>
       <c r="S14" t="n">
         <v>8</v>
@@ -1687,7 +1687,7 @@
         <v>26.71428571428572</v>
       </c>
       <c r="AA14" t="n">
-        <v>-33.71428571428572</v>
+        <v>-14.56318681318681</v>
       </c>
       <c r="AB14" t="n">
         <v>12.14285714285714</v>
@@ -1710,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>79</v>
+        <v>25.32075471698113</v>
       </c>
       <c r="G15" t="n">
         <v>45</v>
@@ -1770,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="Z15" t="n">
-        <v>33</v>
+        <v>25.33153638814016</v>
       </c>
       <c r="AA15" t="n">
         <v>45.42857142857143</v>
@@ -2413,7 +2413,7 @@
         <v>45</v>
       </c>
       <c r="K23" t="n">
-        <v>71</v>
+        <v>14.88461538461539</v>
       </c>
       <c r="L23" t="n">
         <v>-130</v>
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="Z23" t="n">
-        <v>44.71428571428572</v>
+        <v>36.6978021978022</v>
       </c>
       <c r="AA23" t="n">
         <v>-32.42857142857143</v>
@@ -2757,7 +2757,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="n">
-        <v>-25</v>
+        <v>14.88461538461539</v>
       </c>
       <c r="L27" t="n">
         <v>-60</v>
@@ -2802,7 +2802,7 @@
         <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.71428571428572</v>
+        <v>27.41208791208791</v>
       </c>
       <c r="AA27" t="n">
         <v>19.71428571428572</v>
@@ -3463,7 +3463,7 @@
         <v>-15</v>
       </c>
       <c r="Q35" t="n">
-        <v>-161</v>
+        <v>-14.13461538461539</v>
       </c>
       <c r="R35" t="n">
         <v>14</v>
@@ -3493,7 +3493,7 @@
         <v>17.42857142857143</v>
       </c>
       <c r="AA35" t="n">
-        <v>-24.42857142857143</v>
+        <v>-3.447802197802198</v>
       </c>
       <c r="AB35" t="n">
         <v>11.42857142857143</v>
@@ -3739,7 +3739,7 @@
         <v>13</v>
       </c>
       <c r="W38" t="n">
-        <v>-29</v>
+        <v>11.07547169811321</v>
       </c>
       <c r="X38" t="n">
         <v>-2</v>
@@ -3754,7 +3754,7 @@
         <v>-41.85714285714285</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.4285714285714285</v>
+        <v>6.153638814016174</v>
       </c>
     </row>
     <row r="39">
@@ -3816,7 +3816,7 @@
         <v>11</v>
       </c>
       <c r="T39" t="n">
-        <v>-16</v>
+        <v>13.94339622641509</v>
       </c>
       <c r="U39" t="n">
         <v>11</v>
@@ -3840,7 +3840,7 @@
         <v>-29.42857142857143</v>
       </c>
       <c r="AB39" t="n">
-        <v>6.142857142857143</v>
+        <v>10.42048517520216</v>
       </c>
     </row>
     <row r="40">
@@ -4222,7 +4222,7 @@
         <v>27</v>
       </c>
       <c r="L44" t="n">
-        <v>-148</v>
+        <v>-23.26415094339623</v>
       </c>
       <c r="M44" t="n">
         <v>24</v>
@@ -4267,7 +4267,7 @@
         <v>36.71428571428572</v>
       </c>
       <c r="AA44" t="n">
-        <v>-4</v>
+        <v>13.81940700808625</v>
       </c>
       <c r="AB44" t="n">
         <v>14.85714285714286</v>
@@ -4406,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="P46" t="n">
-        <v>128</v>
+        <v>-7.871128515485938</v>
       </c>
       <c r="Q46" t="n">
         <v>49</v>
@@ -4439,7 +4439,7 @@
         <v>6.142857142857143</v>
       </c>
       <c r="AA46" t="n">
-        <v>45.14285714285715</v>
+        <v>25.73269592635915</v>
       </c>
       <c r="AB46" t="n">
         <v>12.14285714285714</v>
@@ -4465,7 +4465,7 @@
         <v>51</v>
       </c>
       <c r="G47" t="n">
-        <v>75</v>
+        <v>14.69811320754717</v>
       </c>
       <c r="H47" t="n">
         <v>37</v>
@@ -4522,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="Z47" t="n">
-        <v>38</v>
+        <v>29.38544474393531</v>
       </c>
       <c r="AA47" t="n">
         <v>6.142857142857143</v>
@@ -4901,7 +4901,7 @@
         <v>17</v>
       </c>
       <c r="I52" t="n">
-        <v>65</v>
+        <v>23.50943396226415</v>
       </c>
       <c r="J52" t="n">
         <v>46</v>
@@ -4925,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="Q52" t="n">
-        <v>-147</v>
+        <v>-14.13461538461539</v>
       </c>
       <c r="R52" t="n">
         <v>-1</v>
@@ -4952,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>18.14285714285714</v>
+        <v>12.21563342318059</v>
       </c>
       <c r="AA52" t="n">
-        <v>-1.285714285714286</v>
+        <v>17.69505494505495</v>
       </c>
       <c r="AB52" t="n">
         <v>4.857142857142857</v>
